--- a/src/main/resources/97-mall-swarm/mall-portal_structure.xlsx
+++ b/src/main/resources/97-mall-swarm/mall-portal_structure.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7154" uniqueCount="648">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7209" uniqueCount="648">
   <si>
     <t>类名</t>
   </si>
@@ -55,7 +55,7 @@
     <t>void</t>
   </si>
   <si>
-    <t>findByMemberIdOrderByCreateTimeDesc(org.springframework.data.domain.Pageable)</t>
+    <t>findByMemberIdOrderByCreateTimeDesc(java.lang.Long,org.springframework.data.domain.Pageable)</t>
   </si>
   <si>
     <t>org.springframework.data.domain.Page</t>
@@ -115,7 +115,7 @@
     <t>com.macro.mall.portal.domain.MemberProductCollection</t>
   </si>
   <si>
-    <t>findByMemberId(org.springframework.data.domain.Pageable)</t>
+    <t>findByMemberId(java.lang.Long,org.springframework.data.domain.Pageable)</t>
   </si>
   <si>
     <t>com.macro.mall.portal.repository.MemberBrandAttentionRepository</t>
@@ -154,7 +154,7 @@
     <t>org.springframework.amqp.core.DirectExchange</t>
   </si>
   <si>
-    <t>orderBinding(org.springframework.amqp.core.DirectExchange)</t>
+    <t>orderBinding(org.springframework.amqp.core.DirectExchange,org.springframework.amqp.core.Queue)</t>
   </si>
   <si>
     <t>org.springframework.amqp.core.Binding</t>
@@ -169,7 +169,7 @@
     <t>org.springframework.amqp.core.Queue</t>
   </si>
   <si>
-    <t>orderTtlBinding(org.springframework.amqp.core.DirectExchange)</t>
+    <t>orderTtlBinding(org.springframework.amqp.core.DirectExchange,org.springframework.amqp.core.Queue)</t>
   </si>
   <si>
     <t>orderQueue()</t>
@@ -358,7 +358,7 @@
     <t>com.macro.mall.portal.domain.PmsPortalProductDetail</t>
   </si>
   <si>
-    <t>lambda$categoryTreeList$1(com.macro.mall.model.PmsProductCategory)</t>
+    <t>lambda$categoryTreeList$1(java.util.List,com.macro.mall.model.PmsProductCategory)</t>
   </si>
   <si>
     <t>com.macro.mall.portal.domain.PmsProductCategoryNode</t>
@@ -370,13 +370,13 @@
     <t>search(java.lang.String,java.lang.Long,java.lang.Long,java.lang.Integer,java.lang.Integer,java.lang.Integer)</t>
   </si>
   <si>
-    <t>lambda$covert$3(com.macro.mall.model.PmsProductCategory)</t>
-  </si>
-  <si>
-    <t>lambda$covert$2(com.macro.mall.model.PmsProductCategory)</t>
-  </si>
-  <si>
-    <t>covert(com.macro.mall.model.PmsProductCategory)</t>
+    <t>lambda$covert$3(java.util.List,com.macro.mall.model.PmsProductCategory)</t>
+  </si>
+  <si>
+    <t>lambda$covert$2(com.macro.mall.model.PmsProductCategory,com.macro.mall.model.PmsProductCategory)</t>
+  </si>
+  <si>
+    <t>covert(com.macro.mall.model.PmsProductCategory,java.util.List)</t>
   </si>
   <si>
     <t>lambda$categoryTreeList$0(com.macro.mall.model.PmsProductCategory)</t>
@@ -556,7 +556,7 @@
     <t>com.macro.mall.portal.service.impl.UmsMemberReceiveAddressServiceImpl</t>
   </si>
   <si>
-    <t>update(com.macro.mall.model.UmsMemberReceiveAddress)</t>
+    <t>update(java.lang.Long,com.macro.mall.model.UmsMemberReceiveAddress)</t>
   </si>
   <si>
     <t>add(com.macro.mall.model.UmsMemberReceiveAddress)</t>
@@ -598,7 +598,7 @@
     <t>nullsLast(java.util.Comparator)</t>
   </si>
   <si>
-    <t>compare(com.macro.mall.model.PmsProductFullReduction)</t>
+    <t>compare(com.macro.mall.model.PmsProductFullReduction,com.macro.mall.model.PmsProductFullReduction)</t>
   </si>
   <si>
     <t>comparingInt(java.util.function.ToIntFunction)</t>
@@ -664,7 +664,7 @@
     <t>add(com.macro.mall.model.OmsCartItem)</t>
   </si>
   <si>
-    <t>lambda$listPromotion$0(com.macro.mall.model.OmsCartItem)</t>
+    <t>lambda$listPromotion$0(java.util.List,com.macro.mall.model.OmsCartItem)</t>
   </si>
   <si>
     <t>updateAttr(com.macro.mall.model.OmsCartItem)</t>
@@ -706,7 +706,7 @@
     <t>list(java.lang.Integer,java.lang.Integer,java.lang.Integer)</t>
   </si>
   <si>
-    <t>deleteCartItemList(com.macro.mall.model.UmsMember)</t>
+    <t>deleteCartItemList(java.util.List,com.macro.mall.model.UmsMember)</t>
   </si>
   <si>
     <t>cancelOrder(java.lang.Long)</t>
@@ -718,7 +718,7 @@
     <t>updateCouponStatus(java.lang.Long,java.lang.Long,java.lang.Integer)</t>
   </si>
   <si>
-    <t>calcPerCouponAmount(com.macro.mall.model.SmsCoupon)</t>
+    <t>calcPerCouponAmount(java.util.List,com.macro.mall.model.SmsCoupon)</t>
   </si>
   <si>
     <t>calcCartAmount(java.util.List)</t>
@@ -745,7 +745,7 @@
     <t>com.macro.mall.portal.domain.SmsCouponHistoryDetail</t>
   </si>
   <si>
-    <t>lambda$list$0(com.macro.mall.model.OmsOrderItem)</t>
+    <t>lambda$list$0(com.macro.mall.portal.domain.OmsOrderDetail,com.macro.mall.model.OmsOrderItem)</t>
   </si>
   <si>
     <t>getOrderPromotionInfo(java.util.List)</t>
@@ -766,7 +766,7 @@
     <t>confirmReceiveOrder(java.lang.Long)</t>
   </si>
   <si>
-    <t>getUseIntegrationAmount(com.macro.mall.model.UmsMember)</t>
+    <t>getUseIntegrationAmount(java.lang.Integer,java.math.BigDecimal,com.macro.mall.model.UmsMember,java.lang.Boolean)</t>
   </si>
   <si>
     <t>calcGiftGrowth(java.util.List)</t>
@@ -793,7 +793,7 @@
     <t>com.macro.mall.portal.service.impl.OmsPromotionServiceImpl$2</t>
   </si>
   <si>
-    <t>compare(com.macro.mall.model.PmsProductLadder)</t>
+    <t>compare(com.macro.mall.model.PmsProductLadder,com.macro.mall.model.PmsProductLadder)</t>
   </si>
   <si>
     <t>com.macro.mall.portal.service.MemberCollectionService</t>
@@ -21381,7 +21381,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F246"/>
+  <dimension ref="A1:F256"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -21953,13 +21953,13 @@
         <v>109</v>
       </c>
       <c r="B34" t="s">
+        <v>112</v>
+      </c>
+      <c r="C34" t="s">
+        <v>109</v>
+      </c>
+      <c r="D34" t="s">
         <v>118</v>
-      </c>
-      <c r="C34" t="s">
-        <v>113</v>
-      </c>
-      <c r="D34" t="s">
-        <v>353</v>
       </c>
       <c r="E34" t="s">
         <v>637</v>
@@ -21967,16 +21967,16 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="B35" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="C35" t="s">
-        <v>261</v>
+        <v>109</v>
       </c>
       <c r="D35" t="s">
-        <v>96</v>
+        <v>118</v>
       </c>
       <c r="E35" t="s">
         <v>637</v>
@@ -21984,16 +21984,16 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="B36" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C36" t="s">
-        <v>261</v>
+        <v>113</v>
       </c>
       <c r="D36" t="s">
-        <v>96</v>
+        <v>353</v>
       </c>
       <c r="E36" t="s">
         <v>637</v>
@@ -22004,13 +22004,13 @@
         <v>120</v>
       </c>
       <c r="B37" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C37" t="s">
-        <v>355</v>
+        <v>261</v>
       </c>
       <c r="D37" t="s">
-        <v>291</v>
+        <v>96</v>
       </c>
       <c r="E37" t="s">
         <v>637</v>
@@ -22021,13 +22021,13 @@
         <v>120</v>
       </c>
       <c r="B38" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C38" t="s">
-        <v>355</v>
+        <v>4</v>
       </c>
       <c r="D38" t="s">
-        <v>290</v>
+        <v>11</v>
       </c>
       <c r="E38" t="s">
         <v>637</v>
@@ -22041,10 +22041,10 @@
         <v>122</v>
       </c>
       <c r="C39" t="s">
-        <v>355</v>
+        <v>261</v>
       </c>
       <c r="D39" t="s">
-        <v>289</v>
+        <v>96</v>
       </c>
       <c r="E39" t="s">
         <v>637</v>
@@ -22061,7 +22061,7 @@
         <v>355</v>
       </c>
       <c r="D40" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="E40" t="s">
         <v>637</v>
@@ -22078,7 +22078,7 @@
         <v>355</v>
       </c>
       <c r="D41" t="s">
-        <v>283</v>
+        <v>290</v>
       </c>
       <c r="E41" t="s">
         <v>637</v>
@@ -22089,13 +22089,13 @@
         <v>120</v>
       </c>
       <c r="B42" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C42" t="s">
         <v>355</v>
       </c>
       <c r="D42" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="E42" t="s">
         <v>637</v>
@@ -22106,13 +22106,13 @@
         <v>120</v>
       </c>
       <c r="B43" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C43" t="s">
-        <v>261</v>
+        <v>355</v>
       </c>
       <c r="D43" t="s">
-        <v>96</v>
+        <v>288</v>
       </c>
       <c r="E43" t="s">
         <v>637</v>
@@ -22123,13 +22123,13 @@
         <v>120</v>
       </c>
       <c r="B44" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C44" t="s">
-        <v>4</v>
+        <v>355</v>
       </c>
       <c r="D44" t="s">
-        <v>22</v>
+        <v>283</v>
       </c>
       <c r="E44" t="s">
         <v>637</v>
@@ -22137,16 +22137,16 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="B45" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="C45" t="s">
-        <v>261</v>
+        <v>355</v>
       </c>
       <c r="D45" t="s">
-        <v>96</v>
+        <v>288</v>
       </c>
       <c r="E45" t="s">
         <v>637</v>
@@ -22154,16 +22154,16 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="B46" t="s">
-        <v>110</v>
+        <v>124</v>
       </c>
       <c r="C46" t="s">
-        <v>32</v>
+        <v>261</v>
       </c>
       <c r="D46" t="s">
-        <v>34</v>
+        <v>96</v>
       </c>
       <c r="E46" t="s">
         <v>637</v>
@@ -22171,16 +22171,16 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="B47" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C47" t="s">
-        <v>261</v>
+        <v>4</v>
       </c>
       <c r="D47" t="s">
-        <v>96</v>
+        <v>22</v>
       </c>
       <c r="E47" t="s">
         <v>637</v>
@@ -22191,7 +22191,7 @@
         <v>125</v>
       </c>
       <c r="B48" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="C48" t="s">
         <v>261</v>
@@ -22208,13 +22208,13 @@
         <v>125</v>
       </c>
       <c r="B49" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="C49" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D49" t="s">
-        <v>291</v>
+        <v>34</v>
       </c>
       <c r="E49" t="s">
         <v>637</v>
@@ -22225,13 +22225,13 @@
         <v>125</v>
       </c>
       <c r="B50" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="C50" t="s">
-        <v>35</v>
+        <v>261</v>
       </c>
       <c r="D50" t="s">
-        <v>290</v>
+        <v>96</v>
       </c>
       <c r="E50" t="s">
         <v>637</v>
@@ -22242,13 +22242,13 @@
         <v>125</v>
       </c>
       <c r="B51" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="C51" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D51" t="s">
-        <v>289</v>
+        <v>31</v>
       </c>
       <c r="E51" t="s">
         <v>637</v>
@@ -22262,10 +22262,10 @@
         <v>126</v>
       </c>
       <c r="C52" t="s">
-        <v>35</v>
+        <v>261</v>
       </c>
       <c r="D52" t="s">
-        <v>283</v>
+        <v>96</v>
       </c>
       <c r="E52" t="s">
         <v>637</v>
@@ -22282,7 +22282,7 @@
         <v>35</v>
       </c>
       <c r="D53" t="s">
-        <v>276</v>
+        <v>291</v>
       </c>
       <c r="E53" t="s">
         <v>637</v>
@@ -22299,7 +22299,7 @@
         <v>35</v>
       </c>
       <c r="D54" t="s">
-        <v>394</v>
+        <v>290</v>
       </c>
       <c r="E54" t="s">
         <v>637</v>
@@ -22313,10 +22313,10 @@
         <v>126</v>
       </c>
       <c r="C55" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D55" t="s">
-        <v>34</v>
+        <v>289</v>
       </c>
       <c r="E55" t="s">
         <v>637</v>
@@ -22327,13 +22327,13 @@
         <v>125</v>
       </c>
       <c r="B56" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C56" t="s">
-        <v>261</v>
+        <v>35</v>
       </c>
       <c r="D56" t="s">
-        <v>96</v>
+        <v>283</v>
       </c>
       <c r="E56" t="s">
         <v>637</v>
@@ -22344,13 +22344,13 @@
         <v>125</v>
       </c>
       <c r="B57" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C57" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D57" t="s">
-        <v>33</v>
+        <v>276</v>
       </c>
       <c r="E57" t="s">
         <v>637</v>
@@ -22361,13 +22361,13 @@
         <v>125</v>
       </c>
       <c r="B58" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C58" t="s">
-        <v>261</v>
+        <v>35</v>
       </c>
       <c r="D58" t="s">
-        <v>96</v>
+        <v>394</v>
       </c>
       <c r="E58" t="s">
         <v>637</v>
@@ -22378,13 +22378,13 @@
         <v>125</v>
       </c>
       <c r="B59" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C59" t="s">
         <v>32</v>
       </c>
       <c r="D59" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="E59" t="s">
         <v>637</v>
@@ -22392,16 +22392,16 @@
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B60" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C60" t="s">
-        <v>75</v>
+        <v>261</v>
       </c>
       <c r="D60" t="s">
-        <v>76</v>
+        <v>96</v>
       </c>
       <c r="E60" t="s">
         <v>637</v>
@@ -22409,16 +22409,16 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="B61" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="C61" t="s">
-        <v>261</v>
+        <v>32</v>
       </c>
       <c r="D61" t="s">
-        <v>96</v>
+        <v>33</v>
       </c>
       <c r="E61" t="s">
         <v>637</v>
@@ -22426,16 +22426,16 @@
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="B62" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="C62" t="s">
-        <v>72</v>
+        <v>261</v>
       </c>
       <c r="D62" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="E62" t="s">
         <v>637</v>
@@ -22443,33 +22443,33 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="B63" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="C63" t="s">
-        <v>240</v>
+        <v>32</v>
       </c>
       <c r="D63" t="s">
-        <v>359</v>
+        <v>22</v>
       </c>
       <c r="E63" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="B64" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C64" t="s">
-        <v>133</v>
+        <v>75</v>
       </c>
       <c r="D64" t="s">
-        <v>135</v>
+        <v>76</v>
       </c>
       <c r="E64" t="s">
         <v>637</v>
@@ -22483,10 +22483,10 @@
         <v>134</v>
       </c>
       <c r="C65" t="s">
-        <v>240</v>
+        <v>261</v>
       </c>
       <c r="D65" t="s">
-        <v>358</v>
+        <v>96</v>
       </c>
       <c r="E65" t="s">
         <v>637</v>
@@ -22500,10 +22500,10 @@
         <v>134</v>
       </c>
       <c r="C66" t="s">
-        <v>133</v>
+        <v>72</v>
       </c>
       <c r="D66" t="s">
-        <v>138</v>
+        <v>73</v>
       </c>
       <c r="E66" t="s">
         <v>637</v>
@@ -22520,10 +22520,10 @@
         <v>240</v>
       </c>
       <c r="D67" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="E67" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
     </row>
     <row r="68">
@@ -22537,7 +22537,7 @@
         <v>133</v>
       </c>
       <c r="D68" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="E68" t="s">
         <v>637</v>
@@ -22548,13 +22548,13 @@
         <v>133</v>
       </c>
       <c r="B69" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C69" t="s">
-        <v>312</v>
+        <v>240</v>
       </c>
       <c r="D69" t="s">
-        <v>322</v>
+        <v>358</v>
       </c>
       <c r="E69" t="s">
         <v>637</v>
@@ -22565,13 +22565,13 @@
         <v>133</v>
       </c>
       <c r="B70" t="s">
+        <v>134</v>
+      </c>
+      <c r="C70" t="s">
+        <v>133</v>
+      </c>
+      <c r="D70" t="s">
         <v>138</v>
-      </c>
-      <c r="C70" t="s">
-        <v>312</v>
-      </c>
-      <c r="D70" t="s">
-        <v>322</v>
       </c>
       <c r="E70" t="s">
         <v>637</v>
@@ -22582,13 +22582,13 @@
         <v>133</v>
       </c>
       <c r="B71" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="C71" t="s">
-        <v>261</v>
+        <v>240</v>
       </c>
       <c r="D71" t="s">
-        <v>96</v>
+        <v>362</v>
       </c>
       <c r="E71" t="s">
         <v>637</v>
@@ -22599,13 +22599,13 @@
         <v>133</v>
       </c>
       <c r="B72" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="C72" t="s">
-        <v>261</v>
+        <v>133</v>
       </c>
       <c r="D72" t="s">
-        <v>96</v>
+        <v>143</v>
       </c>
       <c r="E72" t="s">
         <v>637</v>
@@ -22616,13 +22616,13 @@
         <v>133</v>
       </c>
       <c r="B73" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="C73" t="s">
-        <v>72</v>
+        <v>312</v>
       </c>
       <c r="D73" t="s">
-        <v>74</v>
+        <v>322</v>
       </c>
       <c r="E73" t="s">
         <v>637</v>
@@ -22633,13 +22633,13 @@
         <v>133</v>
       </c>
       <c r="B74" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C74" t="s">
-        <v>261</v>
+        <v>312</v>
       </c>
       <c r="D74" t="s">
-        <v>96</v>
+        <v>322</v>
       </c>
       <c r="E74" t="s">
         <v>637</v>
@@ -22650,13 +22650,13 @@
         <v>133</v>
       </c>
       <c r="B75" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C75" t="s">
-        <v>133</v>
+        <v>261</v>
       </c>
       <c r="D75" t="s">
-        <v>137</v>
+        <v>96</v>
       </c>
       <c r="E75" t="s">
         <v>637</v>
@@ -22667,13 +22667,13 @@
         <v>133</v>
       </c>
       <c r="B76" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C76" t="s">
-        <v>312</v>
+        <v>261</v>
       </c>
       <c r="D76" t="s">
-        <v>322</v>
+        <v>96</v>
       </c>
       <c r="E76" t="s">
         <v>637</v>
@@ -22681,16 +22681,16 @@
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="B77" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="C77" t="s">
-        <v>36</v>
+        <v>72</v>
       </c>
       <c r="D77" t="s">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="E77" t="s">
         <v>637</v>
@@ -22698,16 +22698,16 @@
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="B78" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="C78" t="s">
-        <v>144</v>
+        <v>261</v>
       </c>
       <c r="D78" t="s">
-        <v>151</v>
+        <v>96</v>
       </c>
       <c r="E78" t="s">
         <v>637</v>
@@ -22715,16 +22715,16 @@
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="B79" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="C79" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="D79" t="s">
-        <v>370</v>
+        <v>137</v>
       </c>
       <c r="E79" t="s">
         <v>637</v>
@@ -22732,16 +22732,16 @@
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="B80" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C80" t="s">
-        <v>75</v>
+        <v>312</v>
       </c>
       <c r="D80" t="s">
-        <v>76</v>
+        <v>322</v>
       </c>
       <c r="E80" t="s">
         <v>637</v>
@@ -22752,13 +22752,13 @@
         <v>144</v>
       </c>
       <c r="B81" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C81" t="s">
-        <v>148</v>
+        <v>36</v>
       </c>
       <c r="D81" t="s">
-        <v>367</v>
+        <v>37</v>
       </c>
       <c r="E81" t="s">
         <v>637</v>
@@ -22775,7 +22775,7 @@
         <v>144</v>
       </c>
       <c r="D82" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E82" t="s">
         <v>637</v>
@@ -22792,7 +22792,7 @@
         <v>148</v>
       </c>
       <c r="D83" t="s">
-        <v>363</v>
+        <v>370</v>
       </c>
       <c r="E83" t="s">
         <v>637</v>
@@ -22809,7 +22809,7 @@
         <v>75</v>
       </c>
       <c r="D84" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E84" t="s">
         <v>637</v>
@@ -22826,7 +22826,7 @@
         <v>148</v>
       </c>
       <c r="D85" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="E85" t="s">
         <v>637</v>
@@ -22840,10 +22840,10 @@
         <v>147</v>
       </c>
       <c r="C86" t="s">
-        <v>75</v>
+        <v>144</v>
       </c>
       <c r="D86" t="s">
-        <v>77</v>
+        <v>149</v>
       </c>
       <c r="E86" t="s">
         <v>637</v>
@@ -22860,7 +22860,7 @@
         <v>148</v>
       </c>
       <c r="D87" t="s">
-        <v>373</v>
+        <v>363</v>
       </c>
       <c r="E87" t="s">
         <v>637</v>
@@ -22877,7 +22877,7 @@
         <v>75</v>
       </c>
       <c r="D88" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E88" t="s">
         <v>637</v>
@@ -22894,7 +22894,7 @@
         <v>148</v>
       </c>
       <c r="D89" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E89" t="s">
         <v>637</v>
@@ -22905,13 +22905,13 @@
         <v>144</v>
       </c>
       <c r="B90" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C90" t="s">
-        <v>144</v>
+        <v>75</v>
       </c>
       <c r="D90" t="s">
-        <v>145</v>
+        <v>77</v>
       </c>
       <c r="E90" t="s">
         <v>637</v>
@@ -22922,13 +22922,13 @@
         <v>144</v>
       </c>
       <c r="B91" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C91" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="D91" t="s">
-        <v>156</v>
+        <v>373</v>
       </c>
       <c r="E91" t="s">
         <v>637</v>
@@ -22939,13 +22939,13 @@
         <v>144</v>
       </c>
       <c r="B92" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C92" t="s">
-        <v>150</v>
+        <v>75</v>
       </c>
       <c r="D92" t="s">
-        <v>299</v>
+        <v>80</v>
       </c>
       <c r="E92" t="s">
         <v>637</v>
@@ -22956,13 +22956,13 @@
         <v>144</v>
       </c>
       <c r="B93" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C93" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D93" t="s">
-        <v>296</v>
+        <v>366</v>
       </c>
       <c r="E93" t="s">
         <v>637</v>
@@ -22976,10 +22976,10 @@
         <v>149</v>
       </c>
       <c r="C94" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="D94" t="s">
-        <v>297</v>
+        <v>145</v>
       </c>
       <c r="E94" t="s">
         <v>637</v>
@@ -22996,7 +22996,7 @@
         <v>144</v>
       </c>
       <c r="D95" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E95" t="s">
         <v>637</v>
@@ -23013,7 +23013,7 @@
         <v>150</v>
       </c>
       <c r="D96" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E96" t="s">
         <v>637</v>
@@ -23030,7 +23030,7 @@
         <v>150</v>
       </c>
       <c r="D97" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="E97" t="s">
         <v>637</v>
@@ -23044,10 +23044,10 @@
         <v>149</v>
       </c>
       <c r="C98" t="s">
-        <v>75</v>
+        <v>150</v>
       </c>
       <c r="D98" t="s">
-        <v>78</v>
+        <v>297</v>
       </c>
       <c r="E98" t="s">
         <v>637</v>
@@ -23061,10 +23061,10 @@
         <v>149</v>
       </c>
       <c r="C99" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="D99" t="s">
-        <v>303</v>
+        <v>154</v>
       </c>
       <c r="E99" t="s">
         <v>637</v>
@@ -23075,13 +23075,13 @@
         <v>144</v>
       </c>
       <c r="B100" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C100" t="s">
-        <v>75</v>
+        <v>150</v>
       </c>
       <c r="D100" t="s">
-        <v>77</v>
+        <v>300</v>
       </c>
       <c r="E100" t="s">
         <v>637</v>
@@ -23092,13 +23092,13 @@
         <v>144</v>
       </c>
       <c r="B101" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="C101" t="s">
-        <v>36</v>
+        <v>150</v>
       </c>
       <c r="D101" t="s">
-        <v>39</v>
+        <v>295</v>
       </c>
       <c r="E101" t="s">
         <v>637</v>
@@ -23109,13 +23109,13 @@
         <v>144</v>
       </c>
       <c r="B102" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="C102" t="s">
         <v>75</v>
       </c>
       <c r="D102" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E102" t="s">
         <v>637</v>
@@ -23123,16 +23123,16 @@
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>160</v>
+        <v>144</v>
       </c>
       <c r="B103" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="C103" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="D103" t="s">
-        <v>170</v>
+        <v>303</v>
       </c>
       <c r="E103" t="s">
         <v>637</v>
@@ -23140,16 +23140,16 @@
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>160</v>
+        <v>144</v>
       </c>
       <c r="B104" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="C104" t="s">
-        <v>160</v>
+        <v>75</v>
       </c>
       <c r="D104" t="s">
-        <v>175</v>
+        <v>77</v>
       </c>
       <c r="E104" t="s">
         <v>637</v>
@@ -23157,16 +23157,16 @@
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>160</v>
+        <v>144</v>
       </c>
       <c r="B105" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="C105" t="s">
-        <v>312</v>
+        <v>36</v>
       </c>
       <c r="D105" t="s">
-        <v>318</v>
+        <v>39</v>
       </c>
       <c r="E105" t="s">
         <v>637</v>
@@ -23174,16 +23174,16 @@
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>160</v>
+        <v>144</v>
       </c>
       <c r="B106" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="C106" t="s">
-        <v>312</v>
+        <v>75</v>
       </c>
       <c r="D106" t="s">
-        <v>315</v>
+        <v>79</v>
       </c>
       <c r="E106" t="s">
         <v>637</v>
@@ -23194,13 +23194,13 @@
         <v>160</v>
       </c>
       <c r="B107" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C107" t="s">
         <v>160</v>
       </c>
       <c r="D107" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="E107" t="s">
         <v>637</v>
@@ -23211,13 +23211,13 @@
         <v>160</v>
       </c>
       <c r="B108" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C108" t="s">
-        <v>312</v>
+        <v>160</v>
       </c>
       <c r="D108" t="s">
-        <v>319</v>
+        <v>175</v>
       </c>
       <c r="E108" t="s">
         <v>637</v>
@@ -23234,7 +23234,7 @@
         <v>312</v>
       </c>
       <c r="D109" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="E109" t="s">
         <v>637</v>
@@ -23251,7 +23251,7 @@
         <v>312</v>
       </c>
       <c r="D110" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="E110" t="s">
         <v>637</v>
@@ -23262,13 +23262,13 @@
         <v>160</v>
       </c>
       <c r="B111" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C111" t="s">
         <v>160</v>
       </c>
       <c r="D111" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="E111" t="s">
         <v>637</v>
@@ -23279,13 +23279,13 @@
         <v>160</v>
       </c>
       <c r="B112" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C112" t="s">
-        <v>160</v>
+        <v>312</v>
       </c>
       <c r="D112" t="s">
-        <v>62</v>
+        <v>319</v>
       </c>
       <c r="E112" t="s">
         <v>637</v>
@@ -23296,13 +23296,13 @@
         <v>160</v>
       </c>
       <c r="B113" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C113" t="s">
-        <v>160</v>
+        <v>312</v>
       </c>
       <c r="D113" t="s">
-        <v>170</v>
+        <v>314</v>
       </c>
       <c r="E113" t="s">
         <v>637</v>
@@ -23313,16 +23313,16 @@
         <v>160</v>
       </c>
       <c r="B114" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C114" t="s">
         <v>312</v>
       </c>
       <c r="D114" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E114" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="115">
@@ -23336,10 +23336,10 @@
         <v>160</v>
       </c>
       <c r="D115" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="E115" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="116">
@@ -23350,13 +23350,13 @@
         <v>168</v>
       </c>
       <c r="C116" t="s">
-        <v>312</v>
+        <v>160</v>
       </c>
       <c r="D116" t="s">
-        <v>315</v>
+        <v>62</v>
       </c>
       <c r="E116" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="117">
@@ -23367,13 +23367,13 @@
         <v>168</v>
       </c>
       <c r="C117" t="s">
-        <v>312</v>
+        <v>160</v>
       </c>
       <c r="D117" t="s">
-        <v>319</v>
+        <v>170</v>
       </c>
       <c r="E117" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="118">
@@ -23387,7 +23387,7 @@
         <v>312</v>
       </c>
       <c r="D118" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="E118" t="s">
         <v>638</v>
@@ -23401,10 +23401,10 @@
         <v>168</v>
       </c>
       <c r="C119" t="s">
-        <v>312</v>
+        <v>160</v>
       </c>
       <c r="D119" t="s">
-        <v>317</v>
+        <v>175</v>
       </c>
       <c r="E119" t="s">
         <v>638</v>
@@ -23418,13 +23418,13 @@
         <v>168</v>
       </c>
       <c r="C120" t="s">
-        <v>160</v>
+        <v>312</v>
       </c>
       <c r="D120" t="s">
-        <v>169</v>
+        <v>315</v>
       </c>
       <c r="E120" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
     </row>
     <row r="121">
@@ -23435,13 +23435,13 @@
         <v>168</v>
       </c>
       <c r="C121" t="s">
-        <v>171</v>
+        <v>312</v>
       </c>
       <c r="D121" t="s">
-        <v>395</v>
+        <v>319</v>
       </c>
       <c r="E121" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
     </row>
     <row r="122">
@@ -23452,13 +23452,13 @@
         <v>168</v>
       </c>
       <c r="C122" t="s">
-        <v>160</v>
+        <v>312</v>
       </c>
       <c r="D122" t="s">
-        <v>161</v>
+        <v>314</v>
       </c>
       <c r="E122" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
     </row>
     <row r="123">
@@ -23469,13 +23469,13 @@
         <v>168</v>
       </c>
       <c r="C123" t="s">
-        <v>160</v>
+        <v>312</v>
       </c>
       <c r="D123" t="s">
-        <v>163</v>
+        <v>317</v>
       </c>
       <c r="E123" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
     </row>
     <row r="124">
@@ -23489,10 +23489,10 @@
         <v>160</v>
       </c>
       <c r="D124" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="E124" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="125">
@@ -23503,10 +23503,10 @@
         <v>168</v>
       </c>
       <c r="C125" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="D125" t="s">
-        <v>164</v>
+        <v>395</v>
       </c>
       <c r="E125" t="s">
         <v>637</v>
@@ -23520,10 +23520,10 @@
         <v>168</v>
       </c>
       <c r="C126" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="D126" t="s">
-        <v>398</v>
+        <v>161</v>
       </c>
       <c r="E126" t="s">
         <v>637</v>
@@ -23540,7 +23540,7 @@
         <v>160</v>
       </c>
       <c r="D127" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="E127" t="s">
         <v>637</v>
@@ -23557,10 +23557,10 @@
         <v>160</v>
       </c>
       <c r="D128" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="E128" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
     </row>
     <row r="129">
@@ -23568,13 +23568,13 @@
         <v>160</v>
       </c>
       <c r="B129" t="s">
-        <v>62</v>
+        <v>168</v>
       </c>
       <c r="C129" t="s">
-        <v>59</v>
+        <v>160</v>
       </c>
       <c r="D129" t="s">
-        <v>62</v>
+        <v>164</v>
       </c>
       <c r="E129" t="s">
         <v>637</v>
@@ -23585,13 +23585,13 @@
         <v>160</v>
       </c>
       <c r="B130" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="C130" t="s">
         <v>171</v>
       </c>
       <c r="D130" t="s">
-        <v>337</v>
+        <v>398</v>
       </c>
       <c r="E130" t="s">
         <v>637</v>
@@ -23599,16 +23599,16 @@
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
       <c r="B131" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="C131" t="s">
-        <v>261</v>
+        <v>160</v>
       </c>
       <c r="D131" t="s">
-        <v>96</v>
+        <v>173</v>
       </c>
       <c r="E131" t="s">
         <v>637</v>
@@ -23616,16 +23616,16 @@
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
       <c r="B132" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="C132" t="s">
-        <v>261</v>
+        <v>160</v>
       </c>
       <c r="D132" t="s">
-        <v>96</v>
+        <v>172</v>
       </c>
       <c r="E132" t="s">
         <v>637</v>
@@ -23633,16 +23633,16 @@
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
       <c r="B133" t="s">
-        <v>180</v>
+        <v>62</v>
       </c>
       <c r="C133" t="s">
-        <v>261</v>
+        <v>59</v>
       </c>
       <c r="D133" t="s">
-        <v>96</v>
+        <v>62</v>
       </c>
       <c r="E133" t="s">
         <v>637</v>
@@ -23650,16 +23650,16 @@
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
       <c r="B134" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="C134" t="s">
-        <v>261</v>
+        <v>171</v>
       </c>
       <c r="D134" t="s">
-        <v>96</v>
+        <v>337</v>
       </c>
       <c r="E134" t="s">
         <v>637</v>
@@ -23670,7 +23670,7 @@
         <v>177</v>
       </c>
       <c r="B135" t="s">
-        <v>127</v>
+        <v>178</v>
       </c>
       <c r="C135" t="s">
         <v>261</v>
@@ -23684,10 +23684,10 @@
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="B136" t="s">
-        <v>110</v>
+        <v>179</v>
       </c>
       <c r="C136" t="s">
         <v>261</v>
@@ -23701,16 +23701,16 @@
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="B137" t="s">
-        <v>110</v>
+        <v>180</v>
       </c>
       <c r="C137" t="s">
-        <v>27</v>
+        <v>261</v>
       </c>
       <c r="D137" t="s">
-        <v>29</v>
+        <v>96</v>
       </c>
       <c r="E137" t="s">
         <v>637</v>
@@ -23718,10 +23718,10 @@
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="B138" t="s">
-        <v>121</v>
+        <v>181</v>
       </c>
       <c r="C138" t="s">
         <v>261</v>
@@ -23735,10 +23735,10 @@
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="B139" t="s">
-        <v>184</v>
+        <v>127</v>
       </c>
       <c r="C139" t="s">
         <v>261</v>
@@ -23755,13 +23755,13 @@
         <v>183</v>
       </c>
       <c r="B140" t="s">
-        <v>184</v>
+        <v>110</v>
       </c>
       <c r="C140" t="s">
-        <v>30</v>
+        <v>261</v>
       </c>
       <c r="D140" t="s">
-        <v>291</v>
+        <v>96</v>
       </c>
       <c r="E140" t="s">
         <v>637</v>
@@ -23772,13 +23772,13 @@
         <v>183</v>
       </c>
       <c r="B141" t="s">
-        <v>184</v>
+        <v>110</v>
       </c>
       <c r="C141" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D141" t="s">
-        <v>290</v>
+        <v>29</v>
       </c>
       <c r="E141" t="s">
         <v>637</v>
@@ -23789,13 +23789,13 @@
         <v>183</v>
       </c>
       <c r="B142" t="s">
-        <v>184</v>
+        <v>121</v>
       </c>
       <c r="C142" t="s">
-        <v>30</v>
+        <v>261</v>
       </c>
       <c r="D142" t="s">
-        <v>289</v>
+        <v>96</v>
       </c>
       <c r="E142" t="s">
         <v>637</v>
@@ -23806,13 +23806,13 @@
         <v>183</v>
       </c>
       <c r="B143" t="s">
-        <v>184</v>
+        <v>121</v>
       </c>
       <c r="C143" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D143" t="s">
-        <v>276</v>
+        <v>31</v>
       </c>
       <c r="E143" t="s">
         <v>637</v>
@@ -23826,10 +23826,10 @@
         <v>184</v>
       </c>
       <c r="C144" t="s">
-        <v>30</v>
+        <v>261</v>
       </c>
       <c r="D144" t="s">
-        <v>285</v>
+        <v>96</v>
       </c>
       <c r="E144" t="s">
         <v>637</v>
@@ -23843,10 +23843,10 @@
         <v>184</v>
       </c>
       <c r="C145" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D145" t="s">
-        <v>29</v>
+        <v>291</v>
       </c>
       <c r="E145" t="s">
         <v>637</v>
@@ -23857,13 +23857,13 @@
         <v>183</v>
       </c>
       <c r="B146" t="s">
-        <v>127</v>
+        <v>184</v>
       </c>
       <c r="C146" t="s">
-        <v>261</v>
+        <v>30</v>
       </c>
       <c r="D146" t="s">
-        <v>96</v>
+        <v>290</v>
       </c>
       <c r="E146" t="s">
         <v>637</v>
@@ -23874,13 +23874,13 @@
         <v>183</v>
       </c>
       <c r="B147" t="s">
-        <v>127</v>
+        <v>184</v>
       </c>
       <c r="C147" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D147" t="s">
-        <v>28</v>
+        <v>289</v>
       </c>
       <c r="E147" t="s">
         <v>637</v>
@@ -23891,13 +23891,13 @@
         <v>183</v>
       </c>
       <c r="B148" t="s">
-        <v>124</v>
+        <v>184</v>
       </c>
       <c r="C148" t="s">
-        <v>261</v>
+        <v>30</v>
       </c>
       <c r="D148" t="s">
-        <v>96</v>
+        <v>276</v>
       </c>
       <c r="E148" t="s">
         <v>637</v>
@@ -23908,13 +23908,13 @@
         <v>183</v>
       </c>
       <c r="B149" t="s">
-        <v>124</v>
+        <v>184</v>
       </c>
       <c r="C149" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D149" t="s">
-        <v>22</v>
+        <v>285</v>
       </c>
       <c r="E149" t="s">
         <v>637</v>
@@ -23922,16 +23922,16 @@
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>207</v>
+        <v>183</v>
       </c>
       <c r="B150" t="s">
-        <v>211</v>
+        <v>184</v>
       </c>
       <c r="C150" t="s">
-        <v>207</v>
+        <v>27</v>
       </c>
       <c r="D150" t="s">
-        <v>210</v>
+        <v>29</v>
       </c>
       <c r="E150" t="s">
         <v>637</v>
@@ -23939,16 +23939,16 @@
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>207</v>
+        <v>183</v>
       </c>
       <c r="B151" t="s">
-        <v>211</v>
+        <v>127</v>
       </c>
       <c r="C151" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D151" t="s">
-        <v>168</v>
+        <v>96</v>
       </c>
       <c r="E151" t="s">
         <v>637</v>
@@ -23956,16 +23956,16 @@
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>207</v>
+        <v>183</v>
       </c>
       <c r="B152" t="s">
-        <v>60</v>
+        <v>127</v>
       </c>
       <c r="C152" t="s">
-        <v>59</v>
+        <v>27</v>
       </c>
       <c r="D152" t="s">
-        <v>60</v>
+        <v>28</v>
       </c>
       <c r="E152" t="s">
         <v>637</v>
@@ -23973,10 +23973,10 @@
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>207</v>
+        <v>183</v>
       </c>
       <c r="B153" t="s">
-        <v>213</v>
+        <v>124</v>
       </c>
       <c r="C153" t="s">
         <v>261</v>
@@ -23990,16 +23990,16 @@
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>207</v>
+        <v>183</v>
       </c>
       <c r="B154" t="s">
-        <v>213</v>
+        <v>124</v>
       </c>
       <c r="C154" t="s">
-        <v>207</v>
+        <v>27</v>
       </c>
       <c r="D154" t="s">
-        <v>208</v>
+        <v>22</v>
       </c>
       <c r="E154" t="s">
         <v>637</v>
@@ -24007,16 +24007,16 @@
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>207</v>
+        <v>187</v>
       </c>
       <c r="B155" t="s">
-        <v>215</v>
+        <v>198</v>
       </c>
       <c r="C155" t="s">
-        <v>207</v>
+        <v>187</v>
       </c>
       <c r="D155" t="s">
-        <v>213</v>
+        <v>192</v>
       </c>
       <c r="E155" t="s">
         <v>637</v>
@@ -24024,16 +24024,16 @@
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="B156" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="C156" t="s">
-        <v>65</v>
+        <v>207</v>
       </c>
       <c r="D156" t="s">
-        <v>69</v>
+        <v>210</v>
       </c>
       <c r="E156" t="s">
         <v>637</v>
@@ -24041,16 +24041,16 @@
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="B157" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="C157" t="s">
-        <v>70</v>
+        <v>262</v>
       </c>
       <c r="D157" t="s">
-        <v>443</v>
+        <v>168</v>
       </c>
       <c r="E157" t="s">
         <v>637</v>
@@ -24058,16 +24058,16 @@
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="B158" t="s">
-        <v>219</v>
+        <v>60</v>
       </c>
       <c r="C158" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="D158" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="E158" t="s">
         <v>637</v>
@@ -24075,10 +24075,10 @@
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="B159" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="C159" t="s">
         <v>261</v>
@@ -24092,16 +24092,16 @@
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="B160" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="C160" t="s">
-        <v>240</v>
+        <v>207</v>
       </c>
       <c r="D160" t="s">
-        <v>358</v>
+        <v>208</v>
       </c>
       <c r="E160" t="s">
         <v>637</v>
@@ -24109,16 +24109,16 @@
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="B161" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="C161" t="s">
-        <v>240</v>
+        <v>207</v>
       </c>
       <c r="D161" t="s">
-        <v>362</v>
+        <v>213</v>
       </c>
       <c r="E161" t="s">
         <v>637</v>
@@ -24129,13 +24129,13 @@
         <v>218</v>
       </c>
       <c r="B162" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="C162" t="s">
-        <v>261</v>
+        <v>65</v>
       </c>
       <c r="D162" t="s">
-        <v>96</v>
+        <v>69</v>
       </c>
       <c r="E162" t="s">
         <v>637</v>
@@ -24146,13 +24146,13 @@
         <v>218</v>
       </c>
       <c r="B163" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="C163" t="s">
-        <v>323</v>
+        <v>70</v>
       </c>
       <c r="D163" t="s">
-        <v>324</v>
+        <v>443</v>
       </c>
       <c r="E163" t="s">
         <v>637</v>
@@ -24163,13 +24163,13 @@
         <v>218</v>
       </c>
       <c r="B164" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="C164" t="s">
-        <v>265</v>
+        <v>65</v>
       </c>
       <c r="D164" t="s">
-        <v>211</v>
+        <v>71</v>
       </c>
       <c r="E164" t="s">
         <v>637</v>
@@ -24180,13 +24180,13 @@
         <v>218</v>
       </c>
       <c r="B165" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="C165" t="s">
-        <v>312</v>
+        <v>261</v>
       </c>
       <c r="D165" t="s">
-        <v>322</v>
+        <v>96</v>
       </c>
       <c r="E165" t="s">
         <v>637</v>
@@ -24197,13 +24197,13 @@
         <v>218</v>
       </c>
       <c r="B166" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C166" t="s">
-        <v>312</v>
+        <v>240</v>
       </c>
       <c r="D166" t="s">
-        <v>313</v>
+        <v>358</v>
       </c>
       <c r="E166" t="s">
         <v>637</v>
@@ -24214,13 +24214,13 @@
         <v>218</v>
       </c>
       <c r="B167" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C167" t="s">
-        <v>312</v>
+        <v>240</v>
       </c>
       <c r="D167" t="s">
-        <v>321</v>
+        <v>362</v>
       </c>
       <c r="E167" t="s">
         <v>637</v>
@@ -24234,10 +24234,10 @@
         <v>225</v>
       </c>
       <c r="C168" t="s">
-        <v>312</v>
+        <v>261</v>
       </c>
       <c r="D168" t="s">
-        <v>320</v>
+        <v>96</v>
       </c>
       <c r="E168" t="s">
         <v>637</v>
@@ -24251,10 +24251,10 @@
         <v>225</v>
       </c>
       <c r="C169" t="s">
-        <v>218</v>
+        <v>323</v>
       </c>
       <c r="D169" t="s">
-        <v>243</v>
+        <v>324</v>
       </c>
       <c r="E169" t="s">
         <v>637</v>
@@ -24268,13 +24268,13 @@
         <v>225</v>
       </c>
       <c r="C170" t="s">
-        <v>323</v>
+        <v>265</v>
       </c>
       <c r="D170" t="s">
-        <v>325</v>
+        <v>211</v>
       </c>
       <c r="E170" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
     </row>
     <row r="171">
@@ -24285,10 +24285,10 @@
         <v>225</v>
       </c>
       <c r="C171" t="s">
-        <v>218</v>
+        <v>312</v>
       </c>
       <c r="D171" t="s">
-        <v>239</v>
+        <v>322</v>
       </c>
       <c r="E171" t="s">
         <v>637</v>
@@ -24302,10 +24302,10 @@
         <v>225</v>
       </c>
       <c r="C172" t="s">
-        <v>218</v>
+        <v>312</v>
       </c>
       <c r="D172" t="s">
-        <v>238</v>
+        <v>313</v>
       </c>
       <c r="E172" t="s">
         <v>637</v>
@@ -24319,13 +24319,13 @@
         <v>225</v>
       </c>
       <c r="C173" t="s">
-        <v>323</v>
+        <v>312</v>
       </c>
       <c r="D173" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="E173" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
     </row>
     <row r="174">
@@ -24336,13 +24336,13 @@
         <v>225</v>
       </c>
       <c r="C174" t="s">
-        <v>218</v>
+        <v>312</v>
       </c>
       <c r="D174" t="s">
-        <v>135</v>
+        <v>320</v>
       </c>
       <c r="E174" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
     </row>
     <row r="175">
@@ -24356,7 +24356,7 @@
         <v>218</v>
       </c>
       <c r="D175" t="s">
-        <v>221</v>
+        <v>243</v>
       </c>
       <c r="E175" t="s">
         <v>637</v>
@@ -24370,13 +24370,13 @@
         <v>225</v>
       </c>
       <c r="C176" t="s">
-        <v>218</v>
+        <v>323</v>
       </c>
       <c r="D176" t="s">
-        <v>223</v>
+        <v>325</v>
       </c>
       <c r="E176" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
     </row>
     <row r="177">
@@ -24390,7 +24390,7 @@
         <v>218</v>
       </c>
       <c r="D177" t="s">
-        <v>226</v>
+        <v>239</v>
       </c>
       <c r="E177" t="s">
         <v>637</v>
@@ -24407,7 +24407,7 @@
         <v>218</v>
       </c>
       <c r="D178" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="E178" t="s">
         <v>637</v>
@@ -24421,13 +24421,13 @@
         <v>225</v>
       </c>
       <c r="C179" t="s">
-        <v>218</v>
+        <v>323</v>
       </c>
       <c r="D179" t="s">
-        <v>246</v>
+        <v>332</v>
       </c>
       <c r="E179" t="s">
-        <v>637</v>
+        <v>640</v>
       </c>
     </row>
     <row r="180">
@@ -24441,10 +24441,10 @@
         <v>218</v>
       </c>
       <c r="D180" t="s">
-        <v>230</v>
+        <v>135</v>
       </c>
       <c r="E180" t="s">
-        <v>637</v>
+        <v>641</v>
       </c>
     </row>
     <row r="181">
@@ -24458,7 +24458,7 @@
         <v>218</v>
       </c>
       <c r="D181" t="s">
-        <v>237</v>
+        <v>248</v>
       </c>
       <c r="E181" t="s">
         <v>637</v>
@@ -24472,10 +24472,10 @@
         <v>225</v>
       </c>
       <c r="C182" t="s">
-        <v>323</v>
+        <v>218</v>
       </c>
       <c r="D182" t="s">
-        <v>330</v>
+        <v>221</v>
       </c>
       <c r="E182" t="s">
         <v>637</v>
@@ -24489,10 +24489,10 @@
         <v>225</v>
       </c>
       <c r="C183" t="s">
-        <v>323</v>
+        <v>218</v>
       </c>
       <c r="D183" t="s">
-        <v>326</v>
+        <v>223</v>
       </c>
       <c r="E183" t="s">
         <v>637</v>
@@ -24506,10 +24506,10 @@
         <v>225</v>
       </c>
       <c r="C184" t="s">
-        <v>266</v>
+        <v>218</v>
       </c>
       <c r="D184" t="s">
-        <v>181</v>
+        <v>226</v>
       </c>
       <c r="E184" t="s">
         <v>637</v>
@@ -24526,7 +24526,7 @@
         <v>218</v>
       </c>
       <c r="D185" t="s">
-        <v>222</v>
+        <v>242</v>
       </c>
       <c r="E185" t="s">
         <v>637</v>
@@ -24543,7 +24543,7 @@
         <v>218</v>
       </c>
       <c r="D186" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="E186" t="s">
         <v>637</v>
@@ -24560,7 +24560,7 @@
         <v>218</v>
       </c>
       <c r="D187" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="E187" t="s">
         <v>637</v>
@@ -24574,10 +24574,10 @@
         <v>225</v>
       </c>
       <c r="C188" t="s">
-        <v>81</v>
+        <v>218</v>
       </c>
       <c r="D188" t="s">
-        <v>82</v>
+        <v>237</v>
       </c>
       <c r="E188" t="s">
         <v>637</v>
@@ -24591,10 +24591,10 @@
         <v>225</v>
       </c>
       <c r="C189" t="s">
-        <v>218</v>
+        <v>323</v>
       </c>
       <c r="D189" t="s">
-        <v>231</v>
+        <v>330</v>
       </c>
       <c r="E189" t="s">
         <v>637</v>
@@ -24608,10 +24608,10 @@
         <v>225</v>
       </c>
       <c r="C190" t="s">
-        <v>261</v>
+        <v>323</v>
       </c>
       <c r="D190" t="s">
-        <v>102</v>
+        <v>326</v>
       </c>
       <c r="E190" t="s">
         <v>637</v>
@@ -24625,10 +24625,10 @@
         <v>225</v>
       </c>
       <c r="C191" t="s">
-        <v>218</v>
+        <v>266</v>
       </c>
       <c r="D191" t="s">
-        <v>236</v>
+        <v>181</v>
       </c>
       <c r="E191" t="s">
         <v>637</v>
@@ -24639,13 +24639,13 @@
         <v>218</v>
       </c>
       <c r="B192" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C192" t="s">
-        <v>261</v>
+        <v>218</v>
       </c>
       <c r="D192" t="s">
-        <v>96</v>
+        <v>222</v>
       </c>
       <c r="E192" t="s">
         <v>637</v>
@@ -24656,13 +24656,13 @@
         <v>218</v>
       </c>
       <c r="B193" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C193" t="s">
-        <v>70</v>
+        <v>218</v>
       </c>
       <c r="D193" t="s">
-        <v>442</v>
+        <v>249</v>
       </c>
       <c r="E193" t="s">
         <v>637</v>
@@ -24673,13 +24673,13 @@
         <v>218</v>
       </c>
       <c r="B194" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C194" t="s">
-        <v>265</v>
+        <v>218</v>
       </c>
       <c r="D194" t="s">
-        <v>217</v>
+        <v>235</v>
       </c>
       <c r="E194" t="s">
         <v>637</v>
@@ -24690,13 +24690,13 @@
         <v>218</v>
       </c>
       <c r="B195" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="C195" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="D195" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="E195" t="s">
         <v>637</v>
@@ -24707,7 +24707,7 @@
         <v>218</v>
       </c>
       <c r="B196" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="C196" t="s">
         <v>218</v>
@@ -24724,13 +24724,13 @@
         <v>218</v>
       </c>
       <c r="B197" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="C197" t="s">
         <v>261</v>
       </c>
       <c r="D197" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E197" t="s">
         <v>637</v>
@@ -24741,13 +24741,13 @@
         <v>218</v>
       </c>
       <c r="B198" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="C198" t="s">
-        <v>261</v>
+        <v>218</v>
       </c>
       <c r="D198" t="s">
-        <v>102</v>
+        <v>228</v>
       </c>
       <c r="E198" t="s">
         <v>637</v>
@@ -24758,13 +24758,13 @@
         <v>218</v>
       </c>
       <c r="B199" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="C199" t="s">
         <v>218</v>
       </c>
       <c r="D199" t="s">
-        <v>135</v>
+        <v>236</v>
       </c>
       <c r="E199" t="s">
         <v>637</v>
@@ -24775,13 +24775,13 @@
         <v>218</v>
       </c>
       <c r="B200" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="C200" t="s">
-        <v>234</v>
+        <v>261</v>
       </c>
       <c r="D200" t="s">
-        <v>403</v>
+        <v>96</v>
       </c>
       <c r="E200" t="s">
         <v>637</v>
@@ -24792,13 +24792,13 @@
         <v>218</v>
       </c>
       <c r="B201" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="C201" t="s">
-        <v>312</v>
+        <v>70</v>
       </c>
       <c r="D201" t="s">
-        <v>322</v>
+        <v>442</v>
       </c>
       <c r="E201" t="s">
         <v>637</v>
@@ -24809,13 +24809,13 @@
         <v>218</v>
       </c>
       <c r="B202" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="C202" t="s">
-        <v>234</v>
+        <v>265</v>
       </c>
       <c r="D202" t="s">
-        <v>402</v>
+        <v>217</v>
       </c>
       <c r="E202" t="s">
         <v>637</v>
@@ -24826,13 +24826,13 @@
         <v>218</v>
       </c>
       <c r="B203" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="C203" t="s">
-        <v>234</v>
+        <v>65</v>
       </c>
       <c r="D203" t="s">
-        <v>399</v>
+        <v>68</v>
       </c>
       <c r="E203" t="s">
         <v>637</v>
@@ -24843,13 +24843,13 @@
         <v>218</v>
       </c>
       <c r="B204" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="C204" t="s">
-        <v>234</v>
+        <v>218</v>
       </c>
       <c r="D204" t="s">
-        <v>401</v>
+        <v>231</v>
       </c>
       <c r="E204" t="s">
         <v>637</v>
@@ -24860,13 +24860,13 @@
         <v>218</v>
       </c>
       <c r="B205" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="C205" t="s">
-        <v>88</v>
+        <v>261</v>
       </c>
       <c r="D205" t="s">
-        <v>89</v>
+        <v>105</v>
       </c>
       <c r="E205" t="s">
         <v>637</v>
@@ -24877,13 +24877,13 @@
         <v>218</v>
       </c>
       <c r="B206" t="s">
-        <v>110</v>
+        <v>229</v>
       </c>
       <c r="C206" t="s">
-        <v>70</v>
+        <v>261</v>
       </c>
       <c r="D206" t="s">
-        <v>442</v>
+        <v>102</v>
       </c>
       <c r="E206" t="s">
         <v>637</v>
@@ -24894,13 +24894,13 @@
         <v>218</v>
       </c>
       <c r="B207" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="C207" t="s">
-        <v>240</v>
+        <v>218</v>
       </c>
       <c r="D207" t="s">
-        <v>359</v>
+        <v>135</v>
       </c>
       <c r="E207" t="s">
         <v>637</v>
@@ -24911,16 +24911,16 @@
         <v>218</v>
       </c>
       <c r="B208" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="C208" t="s">
-        <v>218</v>
+        <v>234</v>
       </c>
       <c r="D208" t="s">
-        <v>224</v>
+        <v>403</v>
       </c>
       <c r="E208" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
     </row>
     <row r="209">
@@ -24928,13 +24928,13 @@
         <v>218</v>
       </c>
       <c r="B209" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="C209" t="s">
-        <v>272</v>
+        <v>312</v>
       </c>
       <c r="D209" t="s">
-        <v>134</v>
+        <v>322</v>
       </c>
       <c r="E209" t="s">
         <v>637</v>
@@ -24945,13 +24945,13 @@
         <v>218</v>
       </c>
       <c r="B210" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="C210" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D210" t="s">
-        <v>359</v>
+        <v>402</v>
       </c>
       <c r="E210" t="s">
         <v>637</v>
@@ -24962,13 +24962,13 @@
         <v>218</v>
       </c>
       <c r="B211" t="s">
-        <v>91</v>
+        <v>233</v>
       </c>
       <c r="C211" t="s">
-        <v>65</v>
+        <v>234</v>
       </c>
       <c r="D211" t="s">
-        <v>67</v>
+        <v>399</v>
       </c>
       <c r="E211" t="s">
         <v>637</v>
@@ -24979,13 +24979,13 @@
         <v>218</v>
       </c>
       <c r="B212" t="s">
-        <v>91</v>
+        <v>233</v>
       </c>
       <c r="C212" t="s">
-        <v>65</v>
+        <v>234</v>
       </c>
       <c r="D212" t="s">
-        <v>66</v>
+        <v>401</v>
       </c>
       <c r="E212" t="s">
         <v>637</v>
@@ -24996,13 +24996,13 @@
         <v>218</v>
       </c>
       <c r="B213" t="s">
-        <v>91</v>
+        <v>236</v>
       </c>
       <c r="C213" t="s">
-        <v>70</v>
+        <v>88</v>
       </c>
       <c r="D213" t="s">
-        <v>443</v>
+        <v>89</v>
       </c>
       <c r="E213" t="s">
         <v>637</v>
@@ -25013,13 +25013,13 @@
         <v>218</v>
       </c>
       <c r="B214" t="s">
-        <v>91</v>
+        <v>110</v>
       </c>
       <c r="C214" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="D214" t="s">
-        <v>68</v>
+        <v>442</v>
       </c>
       <c r="E214" t="s">
         <v>637</v>
@@ -25030,13 +25030,13 @@
         <v>218</v>
       </c>
       <c r="B215" t="s">
-        <v>91</v>
+        <v>238</v>
       </c>
       <c r="C215" t="s">
-        <v>218</v>
+        <v>240</v>
       </c>
       <c r="D215" t="s">
-        <v>231</v>
+        <v>359</v>
       </c>
       <c r="E215" t="s">
         <v>637</v>
@@ -25047,16 +25047,16 @@
         <v>218</v>
       </c>
       <c r="B216" t="s">
-        <v>91</v>
+        <v>238</v>
       </c>
       <c r="C216" t="s">
-        <v>261</v>
+        <v>218</v>
       </c>
       <c r="D216" t="s">
-        <v>105</v>
+        <v>232</v>
       </c>
       <c r="E216" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
     </row>
     <row r="217">
@@ -25064,16 +25064,16 @@
         <v>218</v>
       </c>
       <c r="B217" t="s">
-        <v>91</v>
+        <v>238</v>
       </c>
       <c r="C217" t="s">
-        <v>261</v>
+        <v>218</v>
       </c>
       <c r="D217" t="s">
-        <v>102</v>
+        <v>224</v>
       </c>
       <c r="E217" t="s">
-        <v>637</v>
+        <v>641</v>
       </c>
     </row>
     <row r="218">
@@ -25081,16 +25081,16 @@
         <v>218</v>
       </c>
       <c r="B218" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="C218" t="s">
-        <v>312</v>
+        <v>272</v>
       </c>
       <c r="D218" t="s">
-        <v>316</v>
+        <v>134</v>
       </c>
       <c r="E218" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
     </row>
     <row r="219">
@@ -25098,13 +25098,13 @@
         <v>218</v>
       </c>
       <c r="B219" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="C219" t="s">
-        <v>261</v>
+        <v>240</v>
       </c>
       <c r="D219" t="s">
-        <v>96</v>
+        <v>359</v>
       </c>
       <c r="E219" t="s">
         <v>637</v>
@@ -25115,13 +25115,13 @@
         <v>218</v>
       </c>
       <c r="B220" t="s">
-        <v>244</v>
+        <v>91</v>
       </c>
       <c r="C220" t="s">
-        <v>265</v>
+        <v>65</v>
       </c>
       <c r="D220" t="s">
-        <v>211</v>
+        <v>67</v>
       </c>
       <c r="E220" t="s">
         <v>637</v>
@@ -25132,13 +25132,13 @@
         <v>218</v>
       </c>
       <c r="B221" t="s">
-        <v>244</v>
+        <v>91</v>
       </c>
       <c r="C221" t="s">
-        <v>245</v>
+        <v>65</v>
       </c>
       <c r="D221" t="s">
-        <v>374</v>
+        <v>66</v>
       </c>
       <c r="E221" t="s">
         <v>637</v>
@@ -25149,13 +25149,13 @@
         <v>218</v>
       </c>
       <c r="B222" t="s">
-        <v>244</v>
+        <v>91</v>
       </c>
       <c r="C222" t="s">
-        <v>266</v>
+        <v>70</v>
       </c>
       <c r="D222" t="s">
-        <v>180</v>
+        <v>443</v>
       </c>
       <c r="E222" t="s">
         <v>637</v>
@@ -25166,13 +25166,13 @@
         <v>218</v>
       </c>
       <c r="B223" t="s">
-        <v>244</v>
+        <v>91</v>
       </c>
       <c r="C223" t="s">
-        <v>245</v>
+        <v>65</v>
       </c>
       <c r="D223" t="s">
-        <v>381</v>
+        <v>68</v>
       </c>
       <c r="E223" t="s">
         <v>637</v>
@@ -25183,13 +25183,13 @@
         <v>218</v>
       </c>
       <c r="B224" t="s">
-        <v>244</v>
+        <v>91</v>
       </c>
       <c r="C224" t="s">
-        <v>272</v>
+        <v>218</v>
       </c>
       <c r="D224" t="s">
-        <v>134</v>
+        <v>231</v>
       </c>
       <c r="E224" t="s">
         <v>637</v>
@@ -25200,13 +25200,13 @@
         <v>218</v>
       </c>
       <c r="B225" t="s">
-        <v>244</v>
+        <v>91</v>
       </c>
       <c r="C225" t="s">
-        <v>245</v>
+        <v>261</v>
       </c>
       <c r="D225" t="s">
-        <v>379</v>
+        <v>105</v>
       </c>
       <c r="E225" t="s">
         <v>637</v>
@@ -25217,13 +25217,13 @@
         <v>218</v>
       </c>
       <c r="B226" t="s">
-        <v>244</v>
+        <v>91</v>
       </c>
       <c r="C226" t="s">
-        <v>245</v>
+        <v>261</v>
       </c>
       <c r="D226" t="s">
-        <v>382</v>
+        <v>102</v>
       </c>
       <c r="E226" t="s">
         <v>637</v>
@@ -25234,16 +25234,16 @@
         <v>218</v>
       </c>
       <c r="B227" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C227" t="s">
-        <v>245</v>
+        <v>312</v>
       </c>
       <c r="D227" t="s">
-        <v>377</v>
+        <v>316</v>
       </c>
       <c r="E227" t="s">
-        <v>637</v>
+        <v>641</v>
       </c>
     </row>
     <row r="228">
@@ -25254,10 +25254,10 @@
         <v>244</v>
       </c>
       <c r="C228" t="s">
-        <v>218</v>
+        <v>261</v>
       </c>
       <c r="D228" t="s">
-        <v>233</v>
+        <v>96</v>
       </c>
       <c r="E228" t="s">
         <v>637</v>
@@ -25271,10 +25271,10 @@
         <v>244</v>
       </c>
       <c r="C229" t="s">
-        <v>245</v>
+        <v>265</v>
       </c>
       <c r="D229" t="s">
-        <v>376</v>
+        <v>211</v>
       </c>
       <c r="E229" t="s">
         <v>637</v>
@@ -25285,13 +25285,13 @@
         <v>218</v>
       </c>
       <c r="B230" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C230" t="s">
-        <v>261</v>
+        <v>245</v>
       </c>
       <c r="D230" t="s">
-        <v>96</v>
+        <v>374</v>
       </c>
       <c r="E230" t="s">
         <v>637</v>
@@ -25299,16 +25299,16 @@
     </row>
     <row r="231">
       <c r="A231" t="s">
-        <v>323</v>
+        <v>218</v>
       </c>
       <c r="B231" t="s">
-        <v>5</v>
+        <v>244</v>
       </c>
       <c r="C231" t="s">
-        <v>323</v>
+        <v>266</v>
       </c>
       <c r="D231" t="s">
-        <v>334</v>
+        <v>180</v>
       </c>
       <c r="E231" t="s">
         <v>637</v>
@@ -25316,101 +25316,101 @@
     </row>
     <row r="232">
       <c r="A232" t="s">
-        <v>323</v>
+        <v>218</v>
       </c>
       <c r="B232" t="s">
-        <v>5</v>
+        <v>244</v>
       </c>
       <c r="C232" t="s">
-        <v>323</v>
+        <v>245</v>
       </c>
       <c r="D232" t="s">
-        <v>326</v>
+        <v>381</v>
       </c>
       <c r="E232" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="s">
-        <v>323</v>
+        <v>218</v>
       </c>
       <c r="B233" t="s">
-        <v>5</v>
+        <v>244</v>
       </c>
       <c r="C233" t="s">
-        <v>323</v>
+        <v>272</v>
       </c>
       <c r="D233" t="s">
-        <v>325</v>
+        <v>134</v>
       </c>
       <c r="E233" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="s">
-        <v>323</v>
+        <v>218</v>
       </c>
       <c r="B234" t="s">
-        <v>5</v>
+        <v>244</v>
       </c>
       <c r="C234" t="s">
-        <v>323</v>
+        <v>245</v>
       </c>
       <c r="D234" t="s">
-        <v>332</v>
+        <v>379</v>
       </c>
       <c r="E234" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="s">
-        <v>323</v>
+        <v>218</v>
       </c>
       <c r="B235" t="s">
-        <v>5</v>
+        <v>244</v>
       </c>
       <c r="C235" t="s">
-        <v>323</v>
+        <v>245</v>
       </c>
       <c r="D235" t="s">
-        <v>330</v>
+        <v>382</v>
       </c>
       <c r="E235" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="s">
-        <v>323</v>
+        <v>218</v>
       </c>
       <c r="B236" t="s">
-        <v>5</v>
+        <v>244</v>
       </c>
       <c r="C236" t="s">
-        <v>323</v>
+        <v>245</v>
       </c>
       <c r="D236" t="s">
-        <v>324</v>
+        <v>377</v>
       </c>
       <c r="E236" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="s">
-        <v>323</v>
+        <v>218</v>
       </c>
       <c r="B237" t="s">
-        <v>13</v>
+        <v>244</v>
       </c>
       <c r="C237" t="s">
-        <v>323</v>
+        <v>218</v>
       </c>
       <c r="D237" t="s">
-        <v>326</v>
+        <v>233</v>
       </c>
       <c r="E237" t="s">
         <v>637</v>
@@ -25418,16 +25418,16 @@
     </row>
     <row r="238">
       <c r="A238" t="s">
-        <v>323</v>
+        <v>218</v>
       </c>
       <c r="B238" t="s">
-        <v>13</v>
+        <v>244</v>
       </c>
       <c r="C238" t="s">
-        <v>323</v>
+        <v>245</v>
       </c>
       <c r="D238" t="s">
-        <v>325</v>
+        <v>376</v>
       </c>
       <c r="E238" t="s">
         <v>637</v>
@@ -25435,16 +25435,16 @@
     </row>
     <row r="239">
       <c r="A239" t="s">
-        <v>323</v>
+        <v>218</v>
       </c>
       <c r="B239" t="s">
-        <v>13</v>
+        <v>247</v>
       </c>
       <c r="C239" t="s">
-        <v>323</v>
+        <v>261</v>
       </c>
       <c r="D239" t="s">
-        <v>332</v>
+        <v>96</v>
       </c>
       <c r="E239" t="s">
         <v>637</v>
@@ -25452,16 +25452,16 @@
     </row>
     <row r="240">
       <c r="A240" t="s">
-        <v>323</v>
+        <v>256</v>
       </c>
       <c r="B240" t="s">
-        <v>13</v>
+        <v>198</v>
       </c>
       <c r="C240" t="s">
-        <v>323</v>
+        <v>256</v>
       </c>
       <c r="D240" t="s">
-        <v>330</v>
+        <v>257</v>
       </c>
       <c r="E240" t="s">
         <v>637</v>
@@ -25472,13 +25472,13 @@
         <v>323</v>
       </c>
       <c r="B241" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C241" t="s">
         <v>323</v>
       </c>
       <c r="D241" t="s">
-        <v>324</v>
+        <v>334</v>
       </c>
       <c r="E241" t="s">
         <v>637</v>
@@ -25489,7 +25489,7 @@
         <v>323</v>
       </c>
       <c r="B242" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="C242" t="s">
         <v>323</v>
@@ -25498,7 +25498,7 @@
         <v>326</v>
       </c>
       <c r="E242" t="s">
-        <v>637</v>
+        <v>641</v>
       </c>
     </row>
     <row r="243">
@@ -25506,7 +25506,7 @@
         <v>323</v>
       </c>
       <c r="B243" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="C243" t="s">
         <v>323</v>
@@ -25515,7 +25515,7 @@
         <v>325</v>
       </c>
       <c r="E243" t="s">
-        <v>637</v>
+        <v>641</v>
       </c>
     </row>
     <row r="244">
@@ -25523,7 +25523,7 @@
         <v>323</v>
       </c>
       <c r="B244" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="C244" t="s">
         <v>323</v>
@@ -25532,7 +25532,7 @@
         <v>332</v>
       </c>
       <c r="E244" t="s">
-        <v>637</v>
+        <v>641</v>
       </c>
     </row>
     <row r="245">
@@ -25540,7 +25540,7 @@
         <v>323</v>
       </c>
       <c r="B245" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="C245" t="s">
         <v>323</v>
@@ -25549,7 +25549,7 @@
         <v>330</v>
       </c>
       <c r="E245" t="s">
-        <v>637</v>
+        <v>641</v>
       </c>
     </row>
     <row r="246">
@@ -25557,7 +25557,7 @@
         <v>323</v>
       </c>
       <c r="B246" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="C246" t="s">
         <v>323</v>
@@ -25566,6 +25566,176 @@
         <v>324</v>
       </c>
       <c r="E246" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="s">
+        <v>323</v>
+      </c>
+      <c r="B247" t="s">
+        <v>13</v>
+      </c>
+      <c r="C247" t="s">
+        <v>323</v>
+      </c>
+      <c r="D247" t="s">
+        <v>326</v>
+      </c>
+      <c r="E247" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="s">
+        <v>323</v>
+      </c>
+      <c r="B248" t="s">
+        <v>13</v>
+      </c>
+      <c r="C248" t="s">
+        <v>323</v>
+      </c>
+      <c r="D248" t="s">
+        <v>325</v>
+      </c>
+      <c r="E248" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="s">
+        <v>323</v>
+      </c>
+      <c r="B249" t="s">
+        <v>13</v>
+      </c>
+      <c r="C249" t="s">
+        <v>323</v>
+      </c>
+      <c r="D249" t="s">
+        <v>332</v>
+      </c>
+      <c r="E249" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="s">
+        <v>323</v>
+      </c>
+      <c r="B250" t="s">
+        <v>13</v>
+      </c>
+      <c r="C250" t="s">
+        <v>323</v>
+      </c>
+      <c r="D250" t="s">
+        <v>330</v>
+      </c>
+      <c r="E250" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="s">
+        <v>323</v>
+      </c>
+      <c r="B251" t="s">
+        <v>13</v>
+      </c>
+      <c r="C251" t="s">
+        <v>323</v>
+      </c>
+      <c r="D251" t="s">
+        <v>324</v>
+      </c>
+      <c r="E251" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="s">
+        <v>323</v>
+      </c>
+      <c r="B252" t="s">
+        <v>18</v>
+      </c>
+      <c r="C252" t="s">
+        <v>323</v>
+      </c>
+      <c r="D252" t="s">
+        <v>326</v>
+      </c>
+      <c r="E252" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="s">
+        <v>323</v>
+      </c>
+      <c r="B253" t="s">
+        <v>18</v>
+      </c>
+      <c r="C253" t="s">
+        <v>323</v>
+      </c>
+      <c r="D253" t="s">
+        <v>325</v>
+      </c>
+      <c r="E253" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="s">
+        <v>323</v>
+      </c>
+      <c r="B254" t="s">
+        <v>18</v>
+      </c>
+      <c r="C254" t="s">
+        <v>323</v>
+      </c>
+      <c r="D254" t="s">
+        <v>332</v>
+      </c>
+      <c r="E254" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="s">
+        <v>323</v>
+      </c>
+      <c r="B255" t="s">
+        <v>18</v>
+      </c>
+      <c r="C255" t="s">
+        <v>323</v>
+      </c>
+      <c r="D255" t="s">
+        <v>330</v>
+      </c>
+      <c r="E255" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="s">
+        <v>323</v>
+      </c>
+      <c r="B256" t="s">
+        <v>18</v>
+      </c>
+      <c r="C256" t="s">
+        <v>323</v>
+      </c>
+      <c r="D256" t="s">
+        <v>324</v>
+      </c>
+      <c r="E256" t="s">
         <v>637</v>
       </c>
     </row>
@@ -25576,7 +25746,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F68"/>
+  <dimension ref="A1:F69"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -26148,13 +26318,13 @@
         <v>623</v>
       </c>
       <c r="B34" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C34" t="s">
         <v>266</v>
       </c>
       <c r="D34" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E34" t="s">
         <v>637</v>
@@ -26165,13 +26335,13 @@
         <v>623</v>
       </c>
       <c r="B35" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C35" t="s">
         <v>266</v>
       </c>
       <c r="D35" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E35" t="s">
         <v>637</v>
@@ -26182,13 +26352,13 @@
         <v>623</v>
       </c>
       <c r="B36" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C36" t="s">
         <v>266</v>
       </c>
       <c r="D36" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E36" t="s">
         <v>637</v>
@@ -26199,13 +26369,13 @@
         <v>623</v>
       </c>
       <c r="B37" t="s">
-        <v>127</v>
+        <v>181</v>
       </c>
       <c r="C37" t="s">
         <v>266</v>
       </c>
       <c r="D37" t="s">
-        <v>127</v>
+        <v>181</v>
       </c>
       <c r="E37" t="s">
         <v>637</v>
@@ -26213,16 +26383,16 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B38" t="s">
-        <v>186</v>
+        <v>127</v>
       </c>
       <c r="C38" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="D38" t="s">
-        <v>186</v>
+        <v>127</v>
       </c>
       <c r="E38" t="s">
         <v>637</v>
@@ -26230,16 +26400,16 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B39" t="s">
-        <v>219</v>
+        <v>186</v>
       </c>
       <c r="C39" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="D39" t="s">
-        <v>219</v>
+        <v>186</v>
       </c>
       <c r="E39" t="s">
         <v>637</v>
@@ -26250,13 +26420,13 @@
         <v>625</v>
       </c>
       <c r="B40" t="s">
-        <v>110</v>
+        <v>219</v>
       </c>
       <c r="C40" t="s">
         <v>267</v>
       </c>
       <c r="D40" t="s">
-        <v>110</v>
+        <v>219</v>
       </c>
       <c r="E40" t="s">
         <v>637</v>
@@ -26267,13 +26437,13 @@
         <v>625</v>
       </c>
       <c r="B41" t="s">
-        <v>626</v>
+        <v>110</v>
       </c>
       <c r="C41" t="s">
         <v>267</v>
       </c>
       <c r="D41" t="s">
-        <v>229</v>
+        <v>110</v>
       </c>
       <c r="E41" t="s">
         <v>637</v>
@@ -26284,13 +26454,13 @@
         <v>625</v>
       </c>
       <c r="B42" t="s">
-        <v>220</v>
+        <v>626</v>
       </c>
       <c r="C42" t="s">
         <v>267</v>
       </c>
       <c r="D42" t="s">
-        <v>220</v>
+        <v>229</v>
       </c>
       <c r="E42" t="s">
         <v>637</v>
@@ -26301,13 +26471,13 @@
         <v>625</v>
       </c>
       <c r="B43" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="C43" t="s">
         <v>267</v>
       </c>
       <c r="D43" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="E43" t="s">
         <v>637</v>
@@ -26318,13 +26488,13 @@
         <v>625</v>
       </c>
       <c r="B44" t="s">
-        <v>91</v>
+        <v>225</v>
       </c>
       <c r="C44" t="s">
         <v>267</v>
       </c>
       <c r="D44" t="s">
-        <v>91</v>
+        <v>225</v>
       </c>
       <c r="E44" t="s">
         <v>637</v>
@@ -26335,13 +26505,13 @@
         <v>625</v>
       </c>
       <c r="B45" t="s">
-        <v>244</v>
+        <v>91</v>
       </c>
       <c r="C45" t="s">
         <v>267</v>
       </c>
       <c r="D45" t="s">
-        <v>244</v>
+        <v>91</v>
       </c>
       <c r="E45" t="s">
         <v>637</v>
@@ -26352,13 +26522,13 @@
         <v>625</v>
       </c>
       <c r="B46" t="s">
-        <v>227</v>
+        <v>244</v>
       </c>
       <c r="C46" t="s">
         <v>267</v>
       </c>
       <c r="D46" t="s">
-        <v>227</v>
+        <v>244</v>
       </c>
       <c r="E46" t="s">
         <v>637</v>
@@ -26369,13 +26539,13 @@
         <v>625</v>
       </c>
       <c r="B47" t="s">
-        <v>247</v>
+        <v>227</v>
       </c>
       <c r="C47" t="s">
         <v>267</v>
       </c>
       <c r="D47" t="s">
-        <v>247</v>
+        <v>227</v>
       </c>
       <c r="E47" t="s">
         <v>637</v>
@@ -26386,13 +26556,13 @@
         <v>625</v>
       </c>
       <c r="B48" t="s">
-        <v>229</v>
+        <v>247</v>
       </c>
       <c r="C48" t="s">
         <v>267</v>
       </c>
       <c r="D48" t="s">
-        <v>236</v>
+        <v>247</v>
       </c>
       <c r="E48" t="s">
         <v>637</v>
@@ -26400,16 +26570,16 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="B49" t="s">
-        <v>628</v>
+        <v>229</v>
       </c>
       <c r="C49" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="D49" t="s">
-        <v>96</v>
+        <v>236</v>
       </c>
       <c r="E49" t="s">
         <v>637</v>
@@ -26420,13 +26590,13 @@
         <v>627</v>
       </c>
       <c r="B50" t="s">
-        <v>98</v>
+        <v>628</v>
       </c>
       <c r="C50" t="s">
         <v>261</v>
       </c>
       <c r="D50" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E50" t="s">
         <v>637</v>
@@ -26437,13 +26607,13 @@
         <v>627</v>
       </c>
       <c r="B51" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C51" t="s">
         <v>261</v>
       </c>
       <c r="D51" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E51" t="s">
         <v>637</v>
@@ -26454,13 +26624,13 @@
         <v>627</v>
       </c>
       <c r="B52" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C52" t="s">
         <v>261</v>
       </c>
       <c r="D52" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="E52" t="s">
         <v>637</v>
@@ -26471,13 +26641,13 @@
         <v>627</v>
       </c>
       <c r="B53" t="s">
-        <v>255</v>
+        <v>103</v>
       </c>
       <c r="C53" t="s">
         <v>261</v>
       </c>
       <c r="D53" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="E53" t="s">
         <v>637</v>
@@ -26488,13 +26658,13 @@
         <v>627</v>
       </c>
       <c r="B54" t="s">
-        <v>106</v>
+        <v>255</v>
       </c>
       <c r="C54" t="s">
         <v>261</v>
       </c>
       <c r="D54" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="E54" t="s">
         <v>637</v>
@@ -26502,16 +26672,16 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="B55" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C55" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="D55" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E55" t="s">
         <v>637</v>
@@ -26522,13 +26692,13 @@
         <v>629</v>
       </c>
       <c r="B56" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="C56" t="s">
         <v>258</v>
       </c>
       <c r="D56" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="E56" t="s">
         <v>637</v>
@@ -26539,13 +26709,13 @@
         <v>629</v>
       </c>
       <c r="B57" t="s">
-        <v>184</v>
+        <v>121</v>
       </c>
       <c r="C57" t="s">
         <v>258</v>
       </c>
       <c r="D57" t="s">
-        <v>184</v>
+        <v>121</v>
       </c>
       <c r="E57" t="s">
         <v>637</v>
@@ -26556,13 +26726,13 @@
         <v>629</v>
       </c>
       <c r="B58" t="s">
-        <v>127</v>
+        <v>184</v>
       </c>
       <c r="C58" t="s">
         <v>258</v>
       </c>
       <c r="D58" t="s">
-        <v>127</v>
+        <v>184</v>
       </c>
       <c r="E58" t="s">
         <v>637</v>
@@ -26573,13 +26743,13 @@
         <v>629</v>
       </c>
       <c r="B59" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C59" t="s">
         <v>258</v>
       </c>
       <c r="D59" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="E59" t="s">
         <v>637</v>
@@ -26587,16 +26757,16 @@
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B60" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C60" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="D60" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="E60" t="s">
         <v>637</v>
@@ -26607,13 +26777,13 @@
         <v>630</v>
       </c>
       <c r="B61" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C61" t="s">
         <v>268</v>
       </c>
       <c r="D61" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E61" t="s">
         <v>637</v>
@@ -26624,13 +26794,13 @@
         <v>630</v>
       </c>
       <c r="B62" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C62" t="s">
         <v>268</v>
       </c>
       <c r="D62" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E62" t="s">
         <v>637</v>
@@ -26641,13 +26811,13 @@
         <v>630</v>
       </c>
       <c r="B63" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C63" t="s">
         <v>268</v>
       </c>
       <c r="D63" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E63" t="s">
         <v>637</v>
@@ -26655,16 +26825,16 @@
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B64" t="s">
-        <v>110</v>
+        <v>124</v>
       </c>
       <c r="C64" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D64" t="s">
-        <v>110</v>
+        <v>124</v>
       </c>
       <c r="E64" t="s">
         <v>637</v>
@@ -26675,13 +26845,13 @@
         <v>631</v>
       </c>
       <c r="B65" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="C65" t="s">
         <v>270</v>
       </c>
       <c r="D65" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="E65" t="s">
         <v>637</v>
@@ -26692,13 +26862,13 @@
         <v>631</v>
       </c>
       <c r="B66" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="C66" t="s">
         <v>270</v>
       </c>
       <c r="D66" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="E66" t="s">
         <v>637</v>
@@ -26709,13 +26879,13 @@
         <v>631</v>
       </c>
       <c r="B67" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C67" t="s">
         <v>270</v>
       </c>
       <c r="D67" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E67" t="s">
         <v>637</v>
@@ -26726,15 +26896,32 @@
         <v>631</v>
       </c>
       <c r="B68" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C68" t="s">
         <v>270</v>
       </c>
       <c r="D68" t="s">
+        <v>127</v>
+      </c>
+      <c r="E68" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>631</v>
+      </c>
+      <c r="B69" t="s">
         <v>124</v>
       </c>
-      <c r="E68" t="s">
+      <c r="C69" t="s">
+        <v>270</v>
+      </c>
+      <c r="D69" t="s">
+        <v>124</v>
+      </c>
+      <c r="E69" t="s">
         <v>637</v>
       </c>
     </row>
